--- a/src/Tests/ComplexTypeWithCustomRender.Test.DotNet.verified.xlsx
+++ b/src/Tests/ComplexTypeWithCustomRender.Test.DotNet.verified.xlsx
@@ -27,7 +27,7 @@
     <x:t>John Doe</x:t>
   </x:si>
   <x:si>
-    <x:t>900, Victoria Square, SouthAustralia, Adelaide, 5000</x:t>
+    <x:t>900, Victoria Square, SA, Adelaide, 5000</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -391,7 +391,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="46.996339" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="35.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/src/Tests/ComplexTypeWithCustomRender.Test.DotNet.verified.xlsx
+++ b/src/Tests/ComplexTypeWithCustomRender.Test.DotNet.verified.xlsx
@@ -27,7 +27,7 @@
     <x:t>John Doe</x:t>
   </x:si>
   <x:si>
-    <x:t>900, Victoria Square, SA, Adelaide, 5000</x:t>
+    <x:t>900, Victoria Square, Adelaide, SA, 5000</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/src/Tests/ComplexTypeWithCustomRender.Test.DotNet.verified.xlsx
+++ b/src/Tests/ComplexTypeWithCustomRender.Test.DotNet.verified.xlsx
@@ -84,7 +84,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>

--- a/src/Tests/ComplexTypeWithCustomRender.Test.DotNet.verified.xlsx
+++ b/src/Tests/ComplexTypeWithCustomRender.Test.DotNet.verified.xlsx
@@ -84,7 +84,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
